--- a/src/test/resources/commonData.xlsx
+++ b/src/test/resources/commonData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srjen\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srjen\git\TyssOnlineFoodOrdering\TESTYANTRA_SDET49\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC7AC6E-44DB-499A-9E19-C4581FDD4FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43005F-BAFA-4A2C-B381-3A54BA6F9604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="589">
   <si>
     <t>url</t>
   </si>
@@ -67,6 +69,1731 @@
   </si>
   <si>
     <t>http://rmgtestingserver/domain/Online_Food_Ordering_System/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ref=nav_logo</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/customer-preferences/edit?ie=UTF8&amp;preferencesReturnUrl=%2F&amp;ref_=topnav_lang</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/signin?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3Fref_%3Dnav_ya_signin&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/order-history?ref_=nav_orders_first</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/cart/view.html?ref_=nav_cart</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/signin?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3Fref_%3Dnav_signin&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/register?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3F_encoding%3DUTF8%26ref_%3Dnav_newcust&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/hz/wishlist/ls?triggerElementID=createList&amp;ref_=nav_ListFlyout_navFlyout_createList_lv_redirect</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/wishlist/universal?ref_=nav_ListFlyout_gno_listpop_uwl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/baby-reg/homepage?ref_=nav_ListFlyout_gno_listpop_br</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/discover/?ref_=nav_ListFlyout_sbl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/showroom?ref_=nav_ListFlyout_srm_your_desk_wl_in</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/homepage.html?ref_=nav_AccountFlyout_ya</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/order-history?ref_=nav_AccountFlyout_orders</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/hz/wishlist/ls?requiresSignIn=1&amp;ref_=nav_AccountFlyout_wl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/yourstore?ref_=nav_AccountFlyout_recs</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/primecentral?ref_=nav_AccountFlyout_prime</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html?location=https%3A%2F%2Fwww.primevideo.com%2F%3Fref_%3D_apv&amp;source=nav_linktree&amp;token=13D4F90D28CD96790B94E6091246BB1B2AE9FA05</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/auto-deliveries?ref_=nav_AccountFlyout_sns</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/hz5/yourmembershipsandsubscriptions?ref_=nav_AccountFlyout_digital_subscriptions</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?node=2838698031&amp;ld=AZINSOAYAFlyout&amp;ref_=nav_AccountFlyout_sell</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/hz/mycd/myx?pageType=content&amp;ref_=nav_AccountFlyout_myk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/browse.html?node=21102587031&amp;ref_=nav_ya_flyout_b2b_reg_bottom</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/signin?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3Fref_%3Dnav_custrec_signin&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/register?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3F_encoding%3DUTF8%26ref_%3Dnav_custrec_newcust&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0</t>
+  </si>
+  <si>
+    <t>javascript: void(0)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/minitv?ref_=nav_avod_desktop_topnav</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/32702023031?node=32702023031&amp;ld=AZINSOANavDesktop_T3&amp;ref_=nav_cs_sell_T3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/bestsellers/?ref_=nav_cs_bestsellers</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deals?ref_=nav_cs_gb</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/mobile-phones/b/?ie=UTF8&amp;node=1389401031&amp;ref_=nav_cs_mobiles</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/new-releases/?ref_=nav_cs_newreleases</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=200507590&amp;ref_=nav_cs_help</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/prime?ref_=nav_cs_primelink_nonmember</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/electronics/b/?ie=UTF8&amp;node=976419031&amp;ref_=nav_cs_electronics</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Home-Kitchen/b/?ie=UTF8&amp;node=976442031&amp;ref_=nav_cs_home</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/?ref_=nav_cs_giftfinder</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/sva/dashboard?ref_=nav_cs_apay</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/computers-and-accessories/b/?ie=UTF8&amp;node=976392031&amp;ref_=nav_cs_pc</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/browse.html?node=6648217031&amp;ref_=nav_cs_fashion</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Books/b/?ie=UTF8&amp;node=976389031&amp;ref_=nav_cs_books</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/amazon-coupons/b/?_encoding=UTF8&amp;node=10465704031&amp;ref_=nav_cs_coupons</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/beauty/b/?ie=UTF8&amp;node=1355016031&amp;ref_=nav_cs_beauty</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Toys-Games/b/?ie=UTF8&amp;node=1350380031&amp;ref_=nav_cs_toys</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sports/b/?ie=UTF8&amp;node=1984443031&amp;ref_=nav_cs_sports</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Car-Motorbike-Store/b/?ie=UTF8&amp;node=4772060031&amp;ref_=nav_cs_automotive</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Home-Improvement/b/?ie=UTF8&amp;node=4286640031&amp;ref_=nav_cs_hi</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Gourmet-Specialty-Foods/b/?ie=UTF8&amp;node=2454178031&amp;ref_=nav_cs_grocery</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gift-card-store/b/?ie=UTF8&amp;node=3704982031&amp;ref_=nav_cs_gc</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/health-and-personal-care/b/?ie=UTF8&amp;node=1350384031&amp;ref_=nav_cs_hpc</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Baby/b/?ie=UTF8&amp;node=1571274031&amp;ref_=nav_cs_baby</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/video-games/b/?ie=UTF8&amp;node=976460031&amp;ref_=nav_cs_video_games</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pet-Supplies/b/?ie=UTF8&amp;node=2454181031&amp;ref_=nav_cs_pets</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/auto-deliveries/landing?ref_=nav_cs_sns</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Audible-Books-and-Originals/b/?ie=UTF8&amp;node=17941593031&amp;ref_=nav_cs_audible</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?node=6637738031&amp;ref_=nav_cs_amazonbasics</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kindle-eBooks/b/?ie=UTF8&amp;node=1634753031&amp;ref_=nav_cs_kindle_books</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/minitv/tp/f77d9c82-9f7f-427c-923a-d1cd12d72e3e/?_encoding=UTF8&amp;dplnk=Y&amp;mtv_pt=gateway&amp;refMarker=avod_in_swm_HL&amp;ref_=nav_swm_avod_in_swm_HL&amp;pf_rd_p=0fe59282-a838-4767-88ef-97b40c06661a&amp;pf_rd_s=nav-sitewide-msg&amp;pf_rd_t=4201&amp;pf_rd_i=navbar-4201&amp;pf_rd_m=A21TJRUUN4KGV&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/#</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=beauty&amp;rh=n%3A9851597031%2Cp_36%3A9900-&amp;fs=true&amp;qid=1671597514&amp;rnid=1318502031&amp;ref=sr_nr_p_36_5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=27063338031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=shoes&amp;bbn=1983396031&amp;rh=n%3A1983396031%2Cp_36%3A29900-59900%2Cp_72%3A1318477031&amp;s=shoes&amp;dc&amp;qid=1680174348&amp;rnid=4516629031&amp;ref=sr_nr_p_36_2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=37303949031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=27394885031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1389401031&amp;ref_=hero1_WLDUber</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=26297682031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=5257472031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=5257496031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=5258045031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=21541481031&amp;rh=n%3A21541481031%2Cp_72%3A1318477031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=4772060031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=81107432031&amp;rh=n%3A81107432031%2Cp_85%3A10440599031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=81107433031&amp;rh=n%3A81107433031%2Cp_85%3A10440599031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=84514739031&amp;rh=n%3A84514739031%2Cp_85%3A10440599031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=84514752031&amp;rh=n%3A84514752031%2Cp_85%3A10440599031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=84514735031&amp;rh=n%3A84514735031%2Cp_85%3A10440599031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/signin?openid.mode=checkid_setup&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2Fref%3Dgw_sgn_ib%3F_encoding%3DUTF8%26pf_rd_p%3Db1dbcf0f-387c-42b7-a092-9d42f9c202b5%26pd_rd_wg%3DSjHCE%26pf_rd_r%3D8R2MC9P6R9RSK6W6367K%26content-id%3Damzn1.sym.b1dbcf0f-387c-42b7-a092-9d42f9c202b5%26pd_rd_w%3DCoddz%26painterId%3Dsign-in-v2%26pd_rd_r%3D5a8de114-6664-4936-9be2-c01d0380a0b5&amp;openid.assoc_handle=inflex&amp;openid.pape.max_auth_age=0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/ref=mega_sv_s23_2_1_1_1?rh=i%3Aapparel%2Cn%3A1968024031&amp;ie=UTF8&amp;lo=apparel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1983518031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=2563504031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=2454169031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=sl_gw_feb20?node=6648217031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?rh=i%3Aindustrial%2Cn%3A12109315031&amp;ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?rh=i%3Aindustrial%2Cn%3A6395912031&amp;ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=21955490031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=27361229031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=MOREPC?ie=UTF8&amp;node=5866078031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=apparel&amp;bbn=29945467031&amp;rh=n%3A1571271031%2Cn%3A1953602031%2Cn%3A11400137031%2Cn%3A29945467031%2Cp_n_specials_match%3A21618256031%2Cp_85%3A10440599031%2Cp_n_feature_nineteen_browse-bin%3A11301357031&amp;s=apparel&amp;dc&amp;ds=v1%3A%2BhVZPdaILyY6IoUQroogq80u3hsE0%2FFUKKfM3PNzT2c&amp;qid=1668003576&amp;rnid=11301356031&amp;ref=sr_nr_p_n_feature_nineteen_browse-bin_1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=women&amp;handbag?node=29802312031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/ref=mega_sv_s23_1_3_1_1?rh=i%3Awatches%2Cn%3A2563505031&amp;ie=UTF8&amp;lo=watches</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ref=fj/b?node=5210079031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=1571274031&amp;rh=n%3A1571274031%2Cp_n_format_browse-bin%3A27915240031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=1378445031&amp;rh=n%3A1378445031%2Cp_n_format_browse-bin%3A30678570031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=toys&amp;bbn=1350380031&amp;rh=n%3A1350380031%2Cp_n_format_browse-bin%3A30678570031%2Cp_89%3AAmazon+Brand+-+Jam+%26+Honey%7CPlay+Poco</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?hidden-keywords=B08D44P7YS%7CB08D44NSTZ%7CB0876CD7RC%7CB0876CZRH6%7CB0B5GBFS4N%7CB0B5VXZY8R%7CB0B6CBYZK7%7CB0B5GC8HRC%7CB0B5G9PRVJ%7CB0B5GBY3FM%7CB0B5GBX72V%7CB0B5GBK7F7%7CB08FF86YQB%7CB0B6FX1F44%7CB0B6FZYZYT%7CB0B6FTV2QY%7CB0B5VGGF1V%7CB0B5VGNV8R%7CB0B5VGSSQG%7CB08FFB4D2J%7CB08FF8YBF2%7CB0B5VK1MCZ%7CB08FFBWTR5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/58543489031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1380442031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1380374031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1380510031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1380485031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=12414705031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/goldbox/?ie=UTF8&amp;ref=nav_topnav_deals&amp;_ref=dlx_gate_sd_dcl_vai_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/4e701a43/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_4e701a43_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;hidden-keywords=B0BSLS9HCF%20%20%7C%20B09YTYJDR1%20%20%7C%20B091H9DWL9%20%20%7C%20B0C814X7FL%20%20%7C%20B0C788NJSK%20%20%7C%20B0B4DG5PBN%20%20%7C%20B08JW1GVS7%20%20%7C%20B0BYZJ4QY7%20%20%7C%20B0BXSR4ZBD%20%20%7C%20B0BYZJMVNG%20%20%7C%20B0BYZDS3SX%20%20%7C%20B0C2Q7ZDNP%20%20%7C%20B0CBY1GX14%20%20%7C%20B0BJDY3MMT%20%20%7C%20B0B4DHY4DJ%20%20%7C%20B0BN49TBBT&amp;_ref=dlx_gate_sd_dcl_tlt_82b5837e_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/aef52836/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_aef52836_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/8f6c733e/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_8f6c733e_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/3b75f513/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_3b75f513_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/774f5b4d/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_774f5b4d_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/31846f6b/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_31846f6b_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/510c3c67/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_510c3c67_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/DOCTOR-EXTRA-SOFT-Orthopaedic-D-18/dp/B09D89R32K/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_e161b1d5_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/04f5c90e/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_04f5c90e_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B09D89R32K/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_f239e53c_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B07BMXV5SQ/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_6446a8c1_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/41adb83a/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_41adb83a_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/layasa-Sneakers-Walking-Black-Numeric_8/dp/B0BTV787FD/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_91699eac_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/73c51b3f/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_73c51b3f_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B09D89R32K/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_f327bfeb_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/36a49941/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_36a49941_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B09D89R32K/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_bbfad555_dt&amp;pd_rd_w=tJXbR&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=MYUgx&amp;pd_rd_r=68bd2439-aaaf-4efb-b1f3-02ca4aded0af&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=68698547031&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Scented-Candle-Fragrance-Decoration-AXW1314-C/dp/B0BV29R5SH/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kapasi-Handicrafts-Brass-Elephant-Trunk/dp/B084ZQ5B7J/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kaka-jiji-Handicraft-Marble-Krishna/dp/B0995HQQMM/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Candle-Floating-Festival-Flowers-Silver/dp/B0BW8SD3MB/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Home-Decorative-Handpainted-24x12x30-Rajasthani/dp/B08K2SFWRB/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/DECORE-BASKET-Decor-Metal-Bullet/dp/B08HK3PMQT/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Water-Tale-Dragonflies-Clock-Kolorobia/dp/B09MHKGQ92/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kaka-jiji-Handicraft-Venkateswara-Multicolour/dp/B093XWFSNJ/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Decor-Production-Lamination-sparkle_poster_pt2-Multicolor/dp/B08TH6YL1W/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Paper-Plane-Design-Rectangular-Multicolour/dp/B075R4CGMQ/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Shri-Kanth-Customized-Perfect-Decorations/dp/B07YFR7311/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Alnico-Decor-Silver-Finish-Metallic/dp/B08L3CVWR7/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Living-Ticking-Decorative-Bedroom-Kitchen/dp/B0BL34DF85/?_encoding=UTF8&amp;pd_rd_w=ke64S&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=28253258031&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sharleez-Womens-Solid-Bodycon-Western/dp/B0BSS59DPF/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/STARPICK-ENTERPRISE-Womens-Knitted-styalish/dp/B0BT7PKR46/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pragati-Creation-Womens-Georgette-Western/dp/B0BTMGHQV5/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/PRISTINO-Georgette-Printed-Western-WD_L_007_Black_S/dp/B0BYPDJR5W/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sei-Bello-Floral-Dresses-Multicolour/dp/B0C1H9JCW9/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Divena-Indigo-Floral-Printed-Shoulder/dp/B09TTHPZHN/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Mini-Ming-Womens-Black-Printed/dp/B0C5Y1SG12/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ANVARI-FASHION-Women-Stretchable-Dresses/dp/B0BTH9X533/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Shruhad-Womens-T-Shirt-Length-Yellow/dp/B08SQQW4FP/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Istyle-Can-Womens-ISCA-A03-BLP-Medium/dp/B08K48GXTP/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Maahi-Womens-Rayon-Multi-Dress/dp/B0957YXQGV/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/TAXTILE-Womens-Crepe-Line-XX-Large/dp/B09XVDZ5ML/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/AAYU-Flare-Georgette-Length-Dress/dp/B0BXLSHPWZ/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/IndiWeaves%EF%BF%BD-Digital-Printed-Straight-Dresses/dp/B0B7XXRYK7/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/DRESOUL-Women-Stripes-Medium-Maroon/dp/B0BWJWYMYN/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/AHANA-Tiered-Crepe-Dress-XX-Large/dp/B0BW4R2YPB/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Martini-Women-Western-Sleeveless-Bodycon/dp/B08X2QL5Q5/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Buynewtrend-Off-Shoulder-Leopard-Print-Women/dp/B0BFJC9J6V/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/LY2-Front-Fringed-Asymmetric-Black_S/dp/B0BF1LBR7W/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Weroxa-Womens-Polyester-Line-Knee-Length/dp/B0BDZ916FP/?_encoding=UTF8&amp;pd_rd_w=OvttE&amp;content-id=amzn1.sym.0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_p=0e7e7e53-d71f-4581-ae24-662272f5d61e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-summer-fashion-shoveller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=28503501031&amp;ref_=AZINSOA_BTF&amp;ld=AZINSOA_BTF</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=11599648031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1375458031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1375424031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1375425031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=976392031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sparx-Mens-Sneakers-8-India-SD0323G/dp/B077MXB3MX/?_encoding=UTF8&amp;pd_rd_w=zc0Bs&amp;content-id=amzn1.sym.b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_p=b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_a2i_gw_cml</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Allen-Solly-Regular-AMKP317G04249_Jet-Black_XX-Large/dp/B06Y1X1HTM/?_encoding=UTF8&amp;pd_rd_w=zc0Bs&amp;content-id=amzn1.sym.b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_p=b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_a2i_gw_cml</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sparx-Mens-Black-Sneakers-SM-162/dp/B00IZ95RT2/?_encoding=UTF8&amp;pd_rd_w=zc0Bs&amp;content-id=amzn1.sym.b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_p=b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_a2i_gw_cml</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Van-Heusen-Solid-Regular-VSKP517S011406_Purple_Small/dp/B076CCLQ26/?_encoding=UTF8&amp;pd_rd_w=zc0Bs&amp;content-id=amzn1.sym.b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_p=b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_a2i_gw_cml</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;node=50916365031&amp;pd_rd_w=zc0Bs&amp;content-id=amzn1.sym.b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_p=b98893e1-a816-4acd-99b7-7e02149c199a&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_a2i_gw_cml</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ANNI-DESIGNER-Pustak-Blue-Nw_XL_White-Blue_X-Large/dp/B0BV6YP8X3/?_encoding=UTF8&amp;pd_rd_w=NTe3p&amp;content-id=amzn1.sym.f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_p=f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_zg_women_reftag</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ANNI-DESIGNER-Straight-Tbh-Blue_L_Blue_Large/dp/B0C3QNM5VM/?_encoding=UTF8&amp;pd_rd_w=NTe3p&amp;content-id=amzn1.sym.f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_p=f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_zg_women_reftag</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/GoSriKi-Womens-Embroidered-Straight-Stho-White-Nw2-GS_M_White_Medium/dp/B0BVJ1PD38/?_encoding=UTF8&amp;pd_rd_w=NTe3p&amp;content-id=amzn1.sym.f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_p=f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_zg_women_reftag</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pisara-Womens-Printed-Unstitched-Blouse/dp/B09S3X1NS1/?_encoding=UTF8&amp;pd_rd_w=NTe3p&amp;content-id=amzn1.sym.f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_p=f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_zg_women_reftag</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=22316699031&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Moisturizing-Hydrating-Women-Vitamin-Vanilla/dp/B0BSFJL4QF/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Murtela-gold-Face-Wash-100/dp/B01EA2G0DO/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/MY-BODYCARE-Brightening-wash-150g-Mask-100g/dp/B0BJK7HJ16/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Navindia-Well-Skin-Activated-Charcoal/dp/B0B8ZKWRZT/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Slice-Transfer-Matte-Lipstick/dp/B0BTW7QN4B/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Londongrad-Inspired-Burberrry-Alcoholic-Fragrance/dp/B08PBZ8H5S/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/GLAMVEDA-BRIGHTENING-AGEING-FOAMING-150ml/dp/B07WSJ6ZCG/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Petal-Herbs-Ayurveda-Safflower-Moisturizing/dp/B08BTYVNY2/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/INTIMIFY-Kumkumadi-Whitening-Lightening-Pigmentation/dp/B0BLKK9GN6/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Swiss-Beauty-Hilary-Eyeshadow-Palette/dp/B07PZV2CKN/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Organic-Affaire-Florette-Night-Cream/dp/B07DLCC11K/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/BROER-Sunscreen-Protection-Resistant-Moisturizer/dp/B0C1N4KXM8/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ELABLAST-BEAUTY-Silicone-Cleanser-Turmeric/dp/B0C4LH3CHZ/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Jovees-Vitamin-Rejuvenating-Facewash-Infused/dp/B09J136V51/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Oxyglow-Golden-Glow-Saffron-100ml/dp/B014SVAESY/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/COROnation-Herbal-Cleansing-Moisturizing-Nourishment/dp/B09J56NNGF/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ForSure%C2%AE-Power-Stay-Matte-Lipstick/dp/B099FHH8T7/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ7KXJ4/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ZeenuCreation-Hilary-Rhoda-Eyeshadow-Palette/dp/B08FJF3YN6/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ79LPX/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ6SJ5Z/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ95GP8/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Mekup-Panstick-Youthful-Radiant-Look/dp/B08RDSW67K/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/lipstick-chocolate-pigmentation-moisturizing-coverage/dp/B08TQL7BGB/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/maliao-Camera-Ready-Cream-SPF-35/dp/B07XXBJP8G/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Lakm%C3%A9-Cushion-Matte-Lipstick-Rose/dp/B08HSTW6F6/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Million-Colors-Lipstick-Waterproof-Moisturizing/dp/B09WYSBZHZ/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Miss-Rose-Creame-Lasting-Lipstick/dp/B084MHZM9S/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ8292S/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/VARS-LONDON-blusher-contour-highlighter/dp/B08X3LT6KW/?_encoding=UTF8&amp;pd_rd_w=lwkDa&amp;content-id=amzn1.sym.d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_p=d207ce16-d507-4d06-b3ef-7a731eb9d42f&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=22645815031&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/MUTAQINOTI-Brunette-Cushioned-Handcrafted-Officewear/dp/B0BMT6WK6G/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Trendy-Collection-Increasing-Insoles/dp/B0BYJ9GJL5/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Increasing-Insoles-Sneakers-Fashionable/dp/B0BZ43FWG1/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/PARA-COMMANDO-Black-Genuine-Leather/dp/B082H2TRD4/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Trendy-Designer-Increasing-Insoles/dp/B0BYJB9TQY/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Fashionable-Designer-Increasing-Insoles/dp/B0BYJGS496/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-57010-Womens-Chelsea-Boots/dp/B09G9WCGWY/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Womens-Brown-Leather-Ankle/dp/B0BQMP5P1V/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Mens-Cowboy-Ankle-Boots/dp/B08XBMZWLV/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Latest-Fashionable-Height-Increasing/dp/B0BYJ28SY1/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Latest-Height-Increasing-Hidden/dp/B0BYDWJLGM/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Increasing-Elevators-Sneakers-Fashionable/dp/B0BZ45TVMD/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Black-Womens-Ankle-Boots/dp/B09PQSQQ81/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Increasing-Elevators-Insoles-Leather/dp/B0BZ4JP4LL/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/pelle-albero-Leather-Chelsea-PA-SS-5501_TAN/dp/B0BZLBSG2B/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Saint-Womens-Buckle-Decorative-Leather/dp/B09M73FD37/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Women-Olive-Suede-Leather/dp/B09DL6W8XT/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/AXIUM-FTW165-Women-Block-Boots/dp/B0BRSQJTYS/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Womens-Black-Boots-62172/dp/B09JK2TNQR/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Womens-Velvet-Floral-Leather/dp/B09JCCQ6Z7/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Womens-Leather-Handcrafted-Zippers/dp/B0BH511QG8/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Womens-CHerry-Chelsea-60986-37/dp/B0BLL6GW3B/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Saint-Womens-Black-Stitched-Leather/dp/B087DZMLML/?_encoding=UTF8&amp;pd_rd_w=ZfcdL&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/events/?categoryId=gifts-for-men-in</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/events/?categoryId=gifts-for-women-in</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/events/?categoryId=gifts-for-boys-in</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/events/?categoryId=gifts-for-girls-in</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/Birthday-store/gfhz/events?canBeGiftWrapped=false&amp;categoryId=birthday-store-in&amp;isLimitedTimeOffer=false&amp;isPrime=false</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=app_gw_feb20?ie=UTF8&amp;node=14907969031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=luggage_gw_feb20?node=20472969031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=ssh_gw_feb20?ie=UTF8&amp;node=14311960031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=15124949031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=6648217031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/minitv/tp/5cf7a5b5-51f1-4bf9-a13c-39502bb162bf?dplnk=Y&amp;mtv_pt=gateway&amp;refMarker=avod_in_desktop_btf_cc_GutarGU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/minitv/detail?page=home&amp;dplnk=Y&amp;mtv_pt=gateway&amp;refMarker=avod_in_desktop_home</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/27014680031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/27016227031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/22962405031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/22422351031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=22422351031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Box-Brother-Brown-Corrugated-Box_Packing/dp/B09WN3WRT6/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Box-Brother-Corrugated-Shipping-50/dp/B09GW9C6S3/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Box-Brother-Brown-Corrugated-Box_Packing/dp/B09KLX4BMG/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Courier-Envelopes-Pouches-Microns-Security/dp/B081S81DR4/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Box-Brother-Brown-Corrugated-Box_Packing/dp/B09LRYV43J/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Box-Brother-Brown-Corrugated-Packing/dp/B0B3T4TVYM/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/CONTAINER-SECURITY-ROTO-BLOCK-TAMPER-YELLOW/dp/B09GL1GLGW/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Box-Brother-Brown-Corrugated-Box_Packing/dp/B09JLXTJLV/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/1972-Coloplast-Alterna-light-plate/dp/B00WKN5PXW/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Container-Security-Bottle-RAIBEX-B104-Yellow/dp/B099S9X94V/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/KOR-Potassium-Sorbate-Granular-500g/dp/B07RB4NDFW/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Generic-ak200-Asthakesari/dp/B084VN5RHX/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Box-Brother-Brown-Corrugated-Packing/dp/B0B3T5WSBR/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/PackingKaro-Envelopes-Polybags-Shipping-SealKing/dp/B072HC22MC/?_encoding=UTF8&amp;pd_rd_w=jZm5z&amp;content-id=amzn1.sym.1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_p=1f9c8ac5-4a39-408a-8406-d654bd931c32&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_trq_ed_gg1e3f8o</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/live/ref=gw_l_live</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/shop/info</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html?_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Ffcx%2Fshop-by-age%2F22426616031%3Fage%3Dprenatal%26ref_%3Dfly_sa_pdt_rwt_stet_r_prenatalprenatal_nvc_22426616031%26sa%3D%26sc%3D%26st%3D1372805031&amp;source=standards&amp;token=92E2066044E901E39BA4B55F98E091C9E01827E4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html?_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Ffcx%2Fshop-by-age%2Fstore%3Fage%3Dprenatal%26ref_%3Dfly_sa_pdt_rwt_stet_r_prenatalprenatal_nvs_1571271031%26st%3D1571271031&amp;source=standards&amp;token=469FE99C40360A7AD88A14BFBEE63C66F38DCE60%22,%20%22mediaCentralPath%22:%22/img20/Events/TinyTots/GW/Maternity_Sleep__Loungewear.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html?_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Ffcx%2Fshop-by-age%2F22426509031%3Fage%3Dprenatal%26ref_%3Dfly_sa_pdt_rwt_stet_r_prenatalprenatal_nvc_22426509031%26sa%3D%26sc%3D%26st%3D1372805031&amp;source=standards&amp;token=396962536440393EAC337CF4686B9C64EB195518</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html?_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Ffcx%2Fshop-by-age%2F22426115031%3Fage%3Dprenatal%26ref_%3Dfly_sa_hom_rwt_stet_r_prenatalprenatal_nvc_22426115031%26sa%3D%26sc%3D%26st%3D1372805031&amp;source=standards&amp;token=6C4D529D8DC4F0C4B4229EB45FE25AEE2EF9CB45</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/25981077031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=14805548031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=21032399031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=27366150031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1571274031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=baby&amp;bbn=1953345031&amp;rh=n%3A1953345031%2Cp_36%3A-69900</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=86359322031&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Greenele-Electroplated-Hammered-Designer-Outdoor/dp/B0C3Y7KMQS/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Trends-Glass-Flower-Display-Hydroponic/dp/B0C5D1VHQ2/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Reindeer-Ornaments-Decoration-Bedroom-Standing/dp/B0C5D4XWTH/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/CAYONA-Coffee-Glasses-Cappuccino-Chocolate/dp/B0BW8SPSCF/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Trends-Abstract-Sculpture-Desktop-Decoration/dp/B0C5D1L5B5/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Alfa-Design-Crystal-Bathroom-Venetian/dp/B0C4FXCFY2/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Urban-HandicraftTM-Sophisticated-Decorative-Delicate/dp/B0C6QXPGXF/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Urban-Plant-Table-Metal-Planter/dp/B0C6KW1DBP/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/URBAN-CREW-INI-Decorative-Antique/dp/B0C55NSQ7Q/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/IRAYANT-Electric-Grinder-Stainless-Seasonings/dp/B0C4F1NT68/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Trends-Sculpture-Ornament-Figurine-Desktop/dp/B0C5D55ZY6/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Trends-Hydroponic-Plant-Bonsai-Flower/dp/B0C5CZLNVP/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Urban-Plant-Jumbo-Planter-Suitable/dp/B0C6DP8ZS7/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/LaDekor-Running-Statue-Antique-Showpiece/dp/B0C1H5J62Q/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Trends-Sculpture-Decoration-Display-20x43CM/dp/B0C5D27BS2/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/HomeFast-Digital-Touch-Screen-Fryer/dp/B0C59H2FC8/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SEAHAVEN-Premium-Drinking-Cocktails-Fashioned/dp/B0C6MKXC9M/?_encoding=UTF8&amp;pd_rd_w=lo5zr&amp;content-id=amzn1.sym.181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_p=181edb5e-b6cc-47c5-b1a1-4e9ac82bbfc2&amp;pf_rd_r=TE17WPM3Y8KEPN8FH9XD&amp;pd_rd_wg=l8Lam&amp;pd_rd_r=d0eaa044-bdbe-4bb7-af5d-7f9b9cd05220&amp;ref_=pd_gw_lsgw-newcollshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/history</t>
+  </si>
+  <si>
+    <t>https://www.aboutamazon.in/?utm_source=gateway&amp;utm_medium=footer</t>
+  </si>
+  <si>
+    <t>https://amazon.jobs/</t>
+  </si>
+  <si>
+    <t>https://press.aboutamazon.in/?utm_source=gateway&amp;utm_medium=footer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.science/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html/ref=footer_fb?location=http://www.facebook.com/AmazonIN&amp;token=2075D5EAC7BB214089728E2183FD391706D41E94&amp;6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html/ref=footer_twitter?location=http://twitter.com/AmazonIN&amp;token=A309DFBFCB1E37A808FF531934855DC817F130B6&amp;6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html?location=https://www.instagram.com/amazondotin&amp;token=264882C912E9D005CB1D9B61F12E125D5DF9BFC7&amp;source=standards</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?node=2838698031&amp;ld=AZINSOANavDesktopFooter_C&amp;ref_=nav_footer_sell_C</t>
+  </si>
+  <si>
+    <t>https://accelerator.amazon.in/?ref_=map_1_b2b_GW_FT</t>
+  </si>
+  <si>
+    <t>https://brandservices.amazon.in/?ref=AOINABRLGNRFOOT&amp;ld=AOINABRLGNRFOOT</t>
+  </si>
+  <si>
+    <t>https://sell.amazon.in/grow-your-business/amazon-global-selling.html?ld=AZIN_Footer_V1&amp;ref=AZIN_Footer_V1</t>
+  </si>
+  <si>
+    <t>https://affiliate-program.amazon.in/?utm_campaign=assocshowcase&amp;utm_medium=footer&amp;utm_source=GW&amp;ref_=footer_assoc</t>
+  </si>
+  <si>
+    <t>https://services.amazon.in/services/fulfilment-by-amazon/benefits.html/ref=az_footer_fba?ld=AWRGINFBAfooter</t>
+  </si>
+  <si>
+    <t>https://advertising.amazon.in/?ref=Amz.in</t>
+  </si>
+  <si>
+    <t>https://www.amazonpay.in/merchant</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=GDFU3JS5AL6SYHRD&amp;ref_=footer_covid</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/homepage.html?ref_=footer_ya</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/returns/homepage.html?ref_=footer_hy_f_4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=201083470&amp;ref_=footer_swc</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/browse.html?node=6967393031&amp;ref_=footer_mobapp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=200507590&amp;ref_=footer_gw_m_b_he</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ref=footer_logo</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/customer-preferences/edit?ie=UTF8&amp;preferencesReturnUrl=%2F&amp;ref_=footer_lang</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.au/ref=footer_au</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/ref=footer_br</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/ref=footer_ca</t>
+  </si>
+  <si>
+    <t>https://www.amazon.cn/ref=footer_cn</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/ref=footer_fr</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/ref=footer_de</t>
+  </si>
+  <si>
+    <t>https://www.amazon.it/ref=footer_it</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/ref=footer_jp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/ref=footer_mx</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/ref=footer_nl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.pl/ref=footer_pl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.sg/ref=footer_sg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/ref=footer_es</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.tr/ref=footer_tr</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ae/ref=footer_ae</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/ref=footer_uk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ref=footer_us</t>
+  </si>
+  <si>
+    <t>https://www.abebooks.com/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/what-is-cloud-computing/?sc_channel=EL&amp;sc_campaign=IN_amazonfooter</t>
+  </si>
+  <si>
+    <t>https://www.audible.in/</t>
+  </si>
+  <si>
+    <t>https://www.dpreview.com/</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/</t>
+  </si>
+  <si>
+    <t>https://www.shopbop.com/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/business?ref=footer_aingw</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/now?ref=footer_amznow</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/music/prime?ref=footer_apm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=200545940&amp;ref_=footer_cou</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=200534380&amp;ref_=footer_privacy</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=202075050&amp;ref_=footer_iba</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=6967393031&amp;ref_=nav_swm_IN_swm_appdownload&amp;pf_rd_p=1c686ef5-39e5-41d1-82cb-c93c08a15fee&amp;pf_rd_s=nav-sitewide-msg&amp;pf_rd_t=4201&amp;pf_rd_i=navbar-4201&amp;pf_rd_m=A21TJRUUN4KGV&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=fashion&amp;bbn=22371749031&amp;rh=n%3A22371749031%2Cp_36%3A-49900&amp;pd_rd_r=f17f8964-0275-47b5-85db-5e5f9b354cf2&amp;pd_rd_w=VdDz0&amp;pd_rd_wg=vGLpY&amp;pf_rd_p=preview_desktop-2_http%253A%252F%252Fsofa-eu.amazon.com%253A80%252Fsymphony%252Fpreview%252F69c74785%252F69c74785-2f0a-4110-8a30-a392a2939c85%252Fembedded.xml%253F1686414834384&amp;pf_rd_r=N6PDKACS72YNGVX12MCZ&amp;qid=1686414890&amp;rnid=1318502031&amp;ref=sr_nr_p_36_5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=HMDHEROUNRECCLEANINGPC?node=66535976031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=976442031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=beauty&amp;rh=n%3A1374407031%2Cp_36%3A9900-&amp;fs=true&amp;qid=1671597393&amp;rnid=1318502031&amp;ref=sr_nr_p_36_5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/stores/page/32D390A6-8B75-4BB2-8C0B-8CC71E606E7B?ingress=0&amp;visitId=96ca7624-c439-4b50-8591-9536e0f49236</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?hidden-keywords=B0BF57RN3K+%7C+B0B3RRWSF6+%7C+B0BP18W8TM+%7C+B0B854R7NS+%7C+B09YV4MW2T+%7C+B0B5LVS732+%7C+B0BRKXXPZ7+%7C+B0B3N7LR6K+%7C+B09YV4RG4D+%7C+B0B3MWYCHQ+%7C+B09NVPSCQT+%7C+B0BZVGHPCJ+%7C+B0BVW2ZVT5+%7C+B0BP1GCCK2+%7C+B0BWTRJ5MQ+%7C+B0BRN5HLXW+%7C+B0B5LW5DFQ+%7C+B09ZQK9X8G+%7C+B0BF54LXW6+%7C+B09YV3K34W+%7C+B0BF4YBLPX+%7C+B0BRPWMVC7+%7C+B0BRQFF4HN+%7C+B0BP18QB9L+%7C+B0BVVWXMB3+%7C+B0972BQ2RS+%7C+B0B3MZHZS2+%7C+B0BF563HB4+%7C+B0BJ72WZQ7+%7C+B0BRQ1NLLS+%7C+B0B6BMWKDP+%7C+B0B5LSDT8W+%7C+B0BF5C343N+%7C+B0BRPWY4GM+%7C+B0BRPX1MRG+%7C+B09P18XVW6+%7C+B0B852Z6GY+%7C+B0BRPWSXQZ+%7C+B09PLFJ7ZW+%7C+B0B3RSDSZ3+%7C+B0BVVYXZ1G+%7C+B0BVVZCTTQ+%7C+B0BR2MCMSY+%7C+B0BP1HKG33+%7C+B0BDYNRCRC+%7C+B0BF54972T+%7C+B098T329K3+%7C+B0B85414K1+%7C+B0BNXDPZD5+%7C+B0BRN7HRFW+%7C+B0BP1FSCB7+%7C+B0BMQL7BVS+%7C+B0B3MYPX74+%7C+B0BMQMWDZJ+%7C+B09YV4DC29+%7C+B0BRN59BNQ+%7C+B0BP1PH6T4+%7C+B0BRMY7DQ9+%7C+B09ZL5NR68+%7C+B0BRN56N8H+%7C+B09YV575RK+%7C+B0B2Q1W9WP+%7C+B09YV5HHDB+%7C+B09RKJRCFM+%7C+B09RKD1JD1+%7C+B09P1765VX+%7C+B0B855X6W2+%7C+B09WB54TH4+%7C+B0BF4WVPFD+%7C+B0BY2C9SD7+%7C+B0BRN6P1TV+%7C+B0B3N932ZM+%7C+B0B3MXZL6Z+%7C+B0BRN6BFZF+%7C+B0BRPZBZ66+%7C+B0BRPWMW4D+%7C+B0B853MRMY+%7C+B0BP1PN7DX+%7C+B093HCLPJ5+%7C+B0BRQ1LC8B+%7C+B0BRMXW21H+%7C+B0B3RS9DNF+%7C+B0BRQFWJ35+%7C+B094QXS8NJ+%7C+B0B3MYTGZD+%7C+B0BP18VPT7+%7C+B0B3NB9Y3S+%7C+B0B2X35B1K+%7C+B0BRVRDXG4+%7C+B09PRH4H93+%7C+B09PNKXSKF+%7C+B0BRMYRG6M+%7C+B0BRQ12TF1+%7C+B0BRPZPKJG+%7C+B0BRPZ57WV+%7C+B09HZK7ZLH+%7C+B0B3NDPCS9+%7C+B0BDGMPPH9+%7C+B09HHB691Z+%7C+B09Q3T87VH+%7C+B0BNXFDTZ2+%7C+B0BRQFNHQS+%7C+B09YV2957W+%7C+B0BJ6QYRK8+%7C+B0BRKZG4W7+%7C+B0BF58NVGM+%7C+B0BRQF411D+%7C+B0B5LWP12T+%7C+B0BRQ21JHZ+%7C+B09727J4SQ+%7C+B09Q3SHYJ6+%7C+B0B53QFZPY+%7C+B0BJ6P3K4Y+%7C+B09K7SKYY3+%7C+B0B59XYKJT+%7C+B0BN1ZCCVN+%7C+B0BDGLF9HX+%7C+B0BP1RN9XR+%7C+B0BY2DGB71+%7C+B09Q46LYPM+%7C+B09YV414XP+%7C+B094R1M7VM+%7C+B0B3N6V4X4+%7C+B0BRVRG946+%7C+B0BP1MLLYS+%7C+B09YV463SW+%7C+B09ZKY62H1+%7C+B0BMQN52CW+%7C+B0B3N6FXRN+%7C+B0BRMWKZZN+%7C+B0BDYNXP8L+%7C+B0BF5Q75LJ+%7C+B097R25DP7+%7C+B09YV1WVBW+%7C+B0BJ73KHKJ+%7C+B0BRPYY1FP+%7C+B09728JN7L+%7C+B09NVPDLNV+%7C+B0BMQMQTPW+%7C+B09LCRMJW1+%7C+B09NC2TY11+%7C+B09728Q829+%7C+B0BXSP5BYN+%7C+B09NM8LBP2+%7C+B0BVW1VW1V+%7C+B09NBZJ8NJ+%7C+B09Q4K5C7P+%7C+B0B7JPTMNX+%7C+B09RKCM1J3+%7C+B09728QFXY+%7C+B09GFPSZGV+%7C+B09YV3F8RS+%7C+B097F6QT8Z+%7C+B0BY2BXYW9+%7C+B0BY2C9N11+%7C+B0BMQMMDW1+%7C+B0BF4WNC4R+%7C+B09TTJZG1F+%7C+B09TTKHGM7+%7C+B0BDGHKP3T+%7C+B0B6BLTGTT+%7C+B0BF4WLLFQ+%7C+B09GFRF1BX+%7C+B09BNXQ6BR+%7C+B0BXSVKKDR+%7C+B0BXSQWF7X+%7C+B0BJ6ZWPX5+%7C+B0BDZFXDKJ+%7C+B0BDGKV5L8+%7C+B0BDHCPGN5+%7C+B0BJ73NWMC+%7C+B0B5LT655H+%7C+B0BRVQZ9QK+%7C+B0BRPZLPCH+%7C+B09Y1LBYKY+%7C+B097R2JBDF+%7C+B0B46DZ376+%7C+B09ZQLGRW3+%7C+B0BF5C6SY9+%7C+B0BR2MH438+%7C+B0BDGMJM6B+%7C+B0BF5CX7XF+%7C+B0BDZGBTQX+%7C+B0BP18NCLQ+%7C+B0BVW734MK+%7C+B0BF4V72TX+%7C+B0B2JSPSQM+%7C+B09PRGXJJF+%7C+B0BVW4MP8Q+%7C+B09ZKY327P+%7C+B09ZKV1KKW+%7C+B0B2PZ448K+%7C+B0BDGNC36P+%7C+B0B46D1C65+%7C+B09NC1FX43+%7C+B0BDGQNYPR+%7C+B0BDYR2LP5+%7C+B0B5N66FGB+%7C+B09Y1LJX1G+%7C+B0B3N4KCPZ+%7C+B0BVW4LGW8+%7C+B09NVPJ3P4+%7C+B0B42R4B3L+%7C+B0BQ6MSKXT+%7C+B0BP1N77VY+%7C+B09NVP6HXY+%7C+B0BQ6P1BJZ+%7C+B09Q3QM3Y8+%7C+B09Q3RB4RB+%7C+B0BTMMN81R+%7C+B0B2JQKBC8+%7C+B09Q4MRW85+%7C+B0B46FKMQ3+%7C+B0BTMLFWW7+%7C+B0BR2N6F36+%7C+B09RMPKBDC+%7C+B0BTMM4HJK+%7C+B0BVW4KWKJ+%7C+B0BKLK2RL2+%7C+B0B8ZLR1Z3+%7C+B0BMQLY63N+%7C+B09WB6TXBS+%7C+B0BTMLCN7P+%7C+B097R3CN3Y+%7C+B0B56WM84H+%7C+B09NM8S1V4+%7C+B0BR2MNG31+%7C+B0B56YNX15+%7C+B0B2JT5RJ1+%7C+B0BTMM7CGQ+%7C+B0BNXDTNCK+%7C+B0BTMK6KMP+%7C+B0BQ3MHN6V+%7C+B0BQ3QNF1Z+%7C+B0BQ3PTBXS+%7C+B0BDGMY85X+%7C+B097F657N2+%7C+B0BTMKWLCF+%7C+B09ZKYCDXL+%7C+B0BQ6KVKF7+%7C+B0BRL1BWLZ+%7C+B0B3RF8DQP+%7C+B099DSJNVW+%7C+B0BJ74PQK6+%7C+B09SFZC4R7+%7C+B09Q3P6YL4+%7C+B0B3RD3PFZ+%7C+B09SFYT1Z2+%7C+B0BPHVB531+%7C+B0BMVT1R78+%7C+B0BDYTJM1M+%7C+B0BQ6QXPH4&amp;dc&amp;ref=nb_sb_noss</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=1571274031&amp;rh=n%3A1571274031%2Cp_n_format_browse-bin%3A27915240031&amp;pd_rd_w=xUijn&amp;content-id=amzn1.sym.3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_p=3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;hidden-keywords=B08751LHY1%7CB0C333G5JH%7CB0BVBF3RVC%7CB0BVVCZPWH%7CB0BVB1L8CW%7CB0BVBDZTWY%7CB0BVLZSFYD%7CB0BVVDZ288%7CB0BVBDTFRT%7CB0BVVBQZ9H%7CB0BVBBM7KG%7CB0BVBBQ6MK%7CB0C33628X2%7CB0BVVC38LS%7CB0BVB142LY%7CB0BVB8P7QK%7CB0BVM3B1RR%7CB0C1Z4CQ9H%7CB0BVBDZHBS%7CB0BVBF6NFT%7CB0BVBB8KNJ%7CB0BVB9JN1X%7CB0BVBBLBL6%7CB0BVB92Z31%7CB0BVVBFV4D%7CB0BVV9X42J%7CB0BVV9V116%7CB0BVV921N9%7CB0C1Z4VZ5Z%7CB0BVBB2772&amp;ref=nb_sb_noss&amp;pd_rd_w=xUijn&amp;content-id=amzn1.sym.3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_p=3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;k=indoor%20games&amp;i=toys&amp;rh=n%3A1350380031%2Cp_n_format_browse-bin%3A30678570031%2Cp_89%3AAmazon%20Brand%20-%20Jam%20%26%20Honey&amp;pd_rd_w=xUijn&amp;content-id=amzn1.sym.3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_p=3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;k=RC%20cars&amp;rh=n%3A1350380031%2Cp_n_format_browse-bin%3A30678570031&amp;pd_rd_w=xUijn&amp;content-id=amzn1.sym.3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_p=3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;i=baby&amp;bbn=1571274031&amp;rh=n%3A1571274031%2Cp_n_format_browse-bin%3A27915240031%2Cp_89%3AAmazon%20Brand%20-%20Jam%20%26%20Honey%7CSupples&amp;dc=&amp;qid=1689665133&amp;rnid=3837712031&amp;ref=sr_nr_p_89_2&amp;ds=v1%3AAyZpDUgFtpgT4sI3SRTYUJhcn2xb6YgQZ%2F13EYr%2B0ls&amp;pd_rd_w=xUijn&amp;content-id=amzn1.sym.3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_p=3508b5e9-6853-4cb2-9acf-7ad9a9fbae6e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html/?ie=UTF8&amp;_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Fflights%3Fref_%3Dperc_bosh_desktop&amp;source=standards&amp;token=DE397DC1ADF0949AD2E6ECBA302FDAB8E102BEDB&amp;pd_rd_w=roVyH&amp;content-id=amzn1.sym.d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_p=d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html/?ie=UTF8&amp;_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Ftrain-tickets%3Fref_%3Dperc_bost_desktop&amp;source=standards&amp;token=EB4634069722F3B78B58D0884172DB0DE947F0D5&amp;pd_rd_w=roVyH&amp;content-id=amzn1.sym.d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_p=d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html/?ie=UTF8&amp;_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Fbus-tickets%3Fref_%3Dperc_bosb_desktop&amp;source=standards&amp;token=0FBB7A1BEE4ADEB0B89C516C190EB66377781FA6&amp;pd_rd_w=roVyH&amp;content-id=amzn1.sym.d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_p=d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=perc_essentials_desktop/?_encoding=UTF8&amp;node=21812268031&amp;pd_rd_w=roVyH&amp;content-id=amzn1.sym.d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_p=d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/sva/dashboard/?ie=UTF8&amp;ref_=gw_apay_travel_qcpc&amp;pd_rd_w=roVyH&amp;content-id=amzn1.sym.d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_p=d1707614-589c-456e-9429-b97185f9167e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/signin?openid.mode=checkid_setup&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2Fref%3Dgw_sgn_ib%3F_encoding%3DUTF8%26pd_rd_w%3DDGJlo%26content-id%3Damzn1.sym.b1dbcf0f-387c-42b7-a092-9d42f9c202b5%26pf_rd_p%3Db1dbcf0f-387c-42b7-a092-9d42f9c202b5%26pf_rd_r%3DAVY9HDJ1W3CPX0VRMT6Y%26pd_rd_wg%3DiwAWS%26pd_rd_r%3Daef50226-aea0-4974-a6e1-244b1ddf1e09&amp;openid.assoc_handle=inflex&amp;openid.pape.max_auth_age=0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;ie=UTF8&amp;node=5257472031&amp;pd_rd_w=8n5wN&amp;content-id=amzn1.sym.9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_p=9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;ie=UTF8&amp;node=5257496031&amp;pd_rd_w=8n5wN&amp;content-id=amzn1.sym.9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_p=9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;ie=UTF8&amp;node=5258045031&amp;pd_rd_w=8n5wN&amp;content-id=amzn1.sym.9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_p=9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=21541481031&amp;rh=n%3A21541481031%2Cp_72%3A1318477031&amp;pd_rd_w=8n5wN&amp;content-id=amzn1.sym.9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_p=9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;ie=UTF8&amp;node=4772060031&amp;pd_rd_w=8n5wN&amp;content-id=amzn1.sym.9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_p=9ff36f11-82d6-4600-a8fb-e52bb32e171c&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/ref=mega_sv_s23_2_1_1_1/?_encoding=UTF8&amp;rh=i%3Aapparel%2Cn%3A1968024031&amp;ie=UTF8&amp;lo=apparel&amp;pd_rd_w=hHyIv&amp;content-id=amzn1.sym.be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_p=be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=1983518031&amp;pd_rd_w=hHyIv&amp;content-id=amzn1.sym.be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_p=be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=2563504031&amp;pd_rd_w=hHyIv&amp;content-id=amzn1.sym.be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_p=be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=2454169031&amp;pd_rd_w=hHyIv&amp;content-id=amzn1.sym.be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_p=be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=sl_gw_feb20/?_encoding=UTF8&amp;node=6648217031&amp;pd_rd_w=hHyIv&amp;content-id=amzn1.sym.be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_p=be80779f-ffd7-4d9a-9b53-0434c748fbfc&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=81107432031&amp;rh=n%3A81107432031%2Cp_85%3A10440599031&amp;pd_rd_w=A44xV&amp;content-id=amzn1.sym.0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_p=0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=81107433031&amp;rh=n%3A81107433031%2Cp_85%3A10440599031&amp;pd_rd_w=A44xV&amp;content-id=amzn1.sym.0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_p=0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=84514739031&amp;rh=n%3A84514739031%2Cp_85%3A10440599031&amp;pd_rd_w=A44xV&amp;content-id=amzn1.sym.0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_p=0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=84514752031&amp;rh=n%3A84514752031%2Cp_85%3A10440599031&amp;pd_rd_w=A44xV&amp;content-id=amzn1.sym.0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_p=0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=84514735031&amp;rh=n%3A84514735031%2Cp_85%3A10440599031&amp;pd_rd_w=A44xV&amp;content-id=amzn1.sym.0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_p=0fbbbf4f-28a3-416c-9a01-83f0ac37db7a&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;rh=i%3Aindustrial%2Cn%3A12109315031&amp;ie=UTF8&amp;pd_rd_w=2JAyE&amp;content-id=amzn1.sym.adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_p=adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;rh=i%3Aindustrial%2Cn%3A6395912031&amp;ie=UTF8&amp;pd_rd_w=2JAyE&amp;content-id=amzn1.sym.adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_p=adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;ie=UTF8&amp;node=21955490031&amp;pd_rd_w=2JAyE&amp;content-id=amzn1.sym.adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_p=adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;ie=UTF8&amp;node=27361229031&amp;pd_rd_w=2JAyE&amp;content-id=amzn1.sym.adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_p=adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=MOREPC/?_encoding=UTF8&amp;ie=UTF8&amp;node=5866078031&amp;pd_rd_w=2JAyE&amp;content-id=amzn1.sym.adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_p=adda1da9-66c3-401c-98d9-7123606eaadd&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;i=apparel&amp;bbn=29945467031&amp;rh=n%3A1571271031%2Cn%3A1953602031%2Cn%3A11400137031%2Cn%3A29945467031%2Cp_n_specials_match%3A21618256031%2Cp_85%3A10440599031%2Cp_n_feature_nineteen_browse-bin%3A11301357031&amp;s=apparel&amp;dc=&amp;ds=v1%3A%2BhVZPdaILyY6IoUQroogq80u3hsE0%2FFUKKfM3PNzT2c&amp;qid=1668003576&amp;rnid=11301356031&amp;ref=sr_nr_p_n_feature_nineteen_browse-bin_1&amp;pd_rd_w=qkNMM&amp;content-id=amzn1.sym.1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_p=1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=women&amp;handbag/?_encoding=UTF8&amp;node=29802312031&amp;pd_rd_w=qkNMM&amp;content-id=amzn1.sym.1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_p=1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/ref=mega_sv_s23_1_3_1_1/?_encoding=UTF8&amp;rh=i%3Awatches%2Cn%3A2563505031&amp;ie=UTF8&amp;lo=watches&amp;pd_rd_w=qkNMM&amp;content-id=amzn1.sym.1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_p=1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ref=fj/b/?_encoding=UTF8&amp;node=5210079031&amp;pd_rd_w=qkNMM&amp;content-id=amzn1.sym.1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_p=1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=sl_gw_feb20/?_encoding=UTF8&amp;node=6648217031&amp;pd_rd_w=qkNMM&amp;content-id=amzn1.sym.1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_p=1d875155-649f-4635-b097-6067b27775b3&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/goldbox/?ie=UTF8&amp;ref=nav_topnav_deals&amp;_ref=dlx_gate_sd_dcl_vai_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/iQOO-Storage-Snapdragon-Processor-44WFlashCharge/dp/B07WHS7MZ4/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_02322f68_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/0196ad98/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_0196ad98_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/7ff079ac/?_encoding=UTF8&amp;searchAlias=shoes&amp;_ref=dlx_gate_sd_dcl_tlt_7ff079ac_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/3b75f513/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_3b75f513_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/aef52836/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_aef52836_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/8f6c733e/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_8f6c733e_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/774f5b4d/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_774f5b4d_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0BRBKGHGP/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_a0be046f_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B09D89R32K/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_d4658a89_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0BRBKGHGP/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_3b612ce0_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/e83514ff/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_e83514ff_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/INOVERA-LABEL-Ladies-Evening-Wedding/dp/B08MZVMPTK/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_e38b92a5_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/31846f6b/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_31846f6b_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/04f5c90e/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_04f5c90e_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/DOCTOR-EXTRA-SOFT-Orthopaedic-D-18/dp/B09D89R32K/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_34119581_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/510c3c67/?_encoding=UTF8&amp;showVariations=true&amp;_ref=dlx_gate_sd_dcl_tlt_510c3c67_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/layasa-Sneakers-Walking-Black-Numeric_8/dp/B0BTV787FD/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_91699eac_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B07BMXV5SQ/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_6446a8c1_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0BRBKGHGP/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_9d5a416f_dt&amp;pd_rd_w=ck3v1&amp;content-id=amzn1.sym.9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_p=9e4ae409-2145-4395-aa6e-45d7f3e95c3e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=iwAWS&amp;pd_rd_r=aef50226-aea0-4974-a6e1-244b1ddf1e09&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=22645815031&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Trendy-Collection-Increasing-Insoles/dp/B0BYJ9GJL5/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Increasing-Insoles-Sneakers-Fashionable/dp/B0BZ43FWG1/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/PARA-COMMANDO-Black-Genuine-Leather/dp/B082H2TRD4/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Trendy-Designer-Increasing-Insoles/dp/B0BYJB9TQY/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Fashionable-Designer-Increasing-Insoles/dp/B0BYJGS496/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-57010-Womens-Chelsea-Boots/dp/B09G9WCGWY/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Womens-Brown-Leather-Ankle/dp/B0BQMP5P1V/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Mens-Cowboy-Ankle-Boots/dp/B08XBMZWLV/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Latest-Fashionable-Height-Increasing/dp/B0BYJ28SY1/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Latest-Height-Increasing-Hidden/dp/B0BYDWJLGM/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Increasing-Elevators-Sneakers-Fashionable/dp/B0BZ45TVMD/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Black-Womens-Ankle-Boots/dp/B09PQSQQ81/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Increasing-Elevators-Insoles-Leather/dp/B0BZ4JP4LL/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/pelle-albero-Leather-Chelsea-PA-SS-5501_TAN/dp/B0BZLBSG2B/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Saint-Womens-Buckle-Decorative-Leather/dp/B09M73FD37/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Women-Olive-Suede-Leather/dp/B09DL6W8XT/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/AXIUM-FTW165-Women-Block-Boots/dp/B0BRSQJTYS/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Womens-Black-Boots-62172/dp/B09JK2TNQR/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Womens-Velvet-Floral-Leather/dp/B09JCCQ6Z7/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Womens-Leather-Handcrafted-Zippers/dp/B0BH511QG8/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Womens-CHerry-Chelsea-60986-37/dp/B0BLL6GW3B/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Saint-Womens-Black-Stitched-Leather/dp/B087DZMLML/?_encoding=UTF8&amp;pd_rd_w=rZEHC&amp;content-id=amzn1.sym.667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_p=667d9e28-b84e-40a1-8315-97f0480a5865&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=22316699031&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Moisturizing-Hydrating-Women-Vitamin-Vanilla/dp/B0BSFJL4QF/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Murtela-gold-Face-Wash-100/dp/B01EA2G0DO/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/MY-BODYCARE-Brightening-wash-150g-Mask-100g/dp/B0BJK7HJ16/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Navindia-Well-Skin-Activated-Charcoal/dp/B0B8ZKWRZT/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Slice-Transfer-Matte-Lipstick/dp/B0BTW7QN4B/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Londongrad-Inspired-Burberrry-Alcoholic-Fragrance/dp/B08PBZ8H5S/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/GLAMVEDA-BRIGHTENING-AGEING-FOAMING-150ml/dp/B07WSJ6ZCG/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Petal-Herbs-Ayurveda-Safflower-Moisturizing/dp/B08BTYVNY2/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/INTIMIFY-Kumkumadi-Whitening-Lightening-Pigmentation/dp/B0BLKK9GN6/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Swiss-Beauty-Hilary-Eyeshadow-Palette/dp/B07PZV2CKN/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Organic-Affaire-Florette-Night-Cream/dp/B07DLCC11K/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/BROER-Sunscreen-Protection-Resistant-Moisturizer/dp/B0C1N4KXM8/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ELABLAST-BEAUTY-Silicone-Cleanser-Turmeric/dp/B0C4LH3CHZ/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Jovees-Vitamin-Rejuvenating-Facewash-Infused/dp/B09J136V51/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Oxyglow-Golden-Glow-Saffron-100ml/dp/B014SVAESY/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/COROnation-Herbal-Cleansing-Moisturizing-Nourishment/dp/B09J56NNGF/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ForSure%C2%AE-Power-Stay-Matte-Lipstick/dp/B099FHH8T7/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ7KXJ4/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ZeenuCreation-Hilary-Rhoda-Eyeshadow-Palette/dp/B08FJF3YN6/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ79LPX/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ6SJ5Z/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ95GP8/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Mekup-Panstick-Youthful-Radiant-Look/dp/B08RDSW67K/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/lipstick-chocolate-pigmentation-moisturizing-coverage/dp/B08TQL7BGB/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/maliao-Camera-Ready-Cream-SPF-35/dp/B07XXBJP8G/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Lakm%C3%A9-Cushion-Matte-Lipstick-Rose/dp/B08HSTW6F6/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Angeala-727-Juicy-Peach-Nude/dp/B0C36PWWBX/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Million-Colors-Lipstick-Waterproof-Moisturizing/dp/B09WYSBZHZ/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Miss-Rose-Creame-Lasting-Lipstick/dp/B084MHZM9S/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/C2P-Lipstick-Pigmented-Hydration-Moisturization/dp/B0BZQ8292S/?_encoding=UTF8&amp;pd_rd_w=8o3j0&amp;content-id=amzn1.sym.af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_p=af774a43-f534-476c-a2de-ff43cd6f7510&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-beautyshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=11599648031&amp;pd_rd_w=gfjRD&amp;content-id=amzn1.sym.897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_p=897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=1375458031&amp;pd_rd_w=gfjRD&amp;content-id=amzn1.sym.897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_p=897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=1375424031&amp;pd_rd_w=gfjRD&amp;content-id=amzn1.sym.897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_p=897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=1375425031&amp;pd_rd_w=gfjRD&amp;content-id=amzn1.sym.897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_p=897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=976392031&amp;pd_rd_w=gfjRD&amp;content-id=amzn1.sym.897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_p=897fd410-33e9-4bd0-ad0f-a0b2dc0bafca&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=16392737031&amp;rh=n%3A4859730031&amp;ref_=mk_in_fresh_qc_tq7t1pc1&amp;pd_rd_w=cqjIG&amp;content-id=amzn1.sym.5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_p=5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=16392737031&amp;rh=n%3A4859731031&amp;pf_rd_i=20190024&amp;ref_=mk_in_fresh_qc_tq7t2pc1&amp;pd_rd_w=cqjIG&amp;content-id=amzn1.sym.5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_p=5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;bbn=16392737031&amp;rh=n%3A20633036031&amp;pf_rd_i=20190024&amp;ref_=mk_in_fresh_qc_tq7t3pc1&amp;pd_rd_w=cqjIG&amp;content-id=amzn1.sym.5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_p=5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fmc/m/30006503/?_encoding=UTF8&amp;almBrandId=ctnow&amp;ref_=mk_in_fresh_qc_tq7t4pc1&amp;pd_rd_w=cqjIG&amp;content-id=amzn1.sym.5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_p=5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/alm/storefront/?_encoding=UTF8&amp;almBrandId=ctnow&amp;ref_=mk_in_fresh_qc_tq7t5pc1&amp;pd_rd_w=cqjIG&amp;content-id=amzn1.sym.5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_p=5c119794-5fc2-428c-ad73-16d190fb10ff&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ANNI-DESIGNER-Pustak-Blue-Nw_XL_White-Blue_X-Large/dp/B0BV6YP8X3/?_encoding=UTF8&amp;pd_rd_w=KyD82&amp;content-id=amzn1.sym.f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_p=f1f8cdc6-a5d6-4268-8c12-1ccc947bb0d8&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_zg_women_reftag</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=20378172031&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Neutriderm-Vitamin-Moisturising-Lotion-125/dp/B00GSXY6DU/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Attar-Ayurveda-Indigo-Powder-black/dp/B07WHKKBVF/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/UrbanBotanics-Pure-Aloe-Vera-Paraben/dp/B07GPT37YB/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Prima-Donna-Round-Cotton-Pads/dp/B075FPYJHX/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/RE-EQUIL-Sunscreen-resistant-Titanium/dp/B07VP5JFRB/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/UrbanBotanicsTM-Cold-Pressed-Moisturizing-Eyelashes-Hexane-Free/dp/B07GWY28FZ/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Organix-Mantra-Muscle-Relief-Relieves/dp/B07C16V2TC/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/RE-EQUIL-Oxybenzone-Sunscreen-Sensitive/dp/B07GKXDP8P/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/UrbanBotanics%C2%AE-Pressed-Sweet-Almond-Odorless/dp/B07MSHC5FZ/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Khadi-Omorose-Glycerine-250-Gms/dp/B01LJY0PLE/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/KAZIMA-Aloe-Vera-Gel-Raw/dp/B071S4941T/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/UrbanBotanicsTM-Natural-Distilled-Organic-Chemical/dp/B07MW7CX3T/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/UrbanBotanics%C2%AE-Pure-Pressed-Olive-250ml/dp/B07RDNNDXN/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Insight-Vov-Primer-Oil-Free/dp/B0746KYG4M/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kapiva-Pure-Aloe-Vera-Skin/dp/B07SZ43SWF/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wishcare-Premium-Pressed-Castor-200Ml/dp/B074MJ3VX8/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Juicy-Chemistry-Organic-Rosehip-Orange/dp/B01N2LYRWX/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Vitro-Rose-Water-200-Set/dp/B01D65HKFS/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Organix-Mantra-Essential-Conditioner-Therapeutic/dp/B06XX4DTV8/?_encoding=UTF8&amp;pd_rd_w=zJ0Xy&amp;content-id=amzn1.sym.b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_p=b7cb997f-9c87-4a35-b7f5-06020612a7f4&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_ref_b68b93d5-3891-4115-990c-1eec06090807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=28253258031&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Ayushi-Furniture-Outdoor-Balcony-Protection/dp/B0C2HQ31KG/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/NKF-CARVE-Attached-Drawers-Sheesham/dp/B0B65MZTM9/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ES-ESPN0001-Sectional-Chesterfield-Orientation/dp/B0952C1M9B/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SpyderCraft-Furniture-Outdoor-Balcony-Protection/dp/B0C372GHDJ/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Casaliving-Seater-Shape-Light-Green/dp/B09CMKZXH4/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Spyder-Cushion-Outdoor-Balcony-Improvement/dp/B09TN59J76/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Table-Workspaces-Engineered-Laptop-Computer/dp/B09BR8TWTT/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Fabrique-Lazylush-Lshape-Seater-Leatherette/dp/B09H4PW8R8/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Casaliving-Stephanie-Seater-Living-Fabric/dp/B09LMCKQ2V/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Armchair-Living-Outdoor-Balcony-Stylish/dp/B0B2W825R1/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ES-ESPINHO-ESPN0012-Velvet-Chesterfield/dp/B095HNY2KC/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Spyder-Home-Decore-Hammock-Relaxing/dp/B0BV3183LR/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/WOOD-CRAFT-Sheesham-Indian-Rosewood/dp/B085MZQ736/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wooden-Cave-Handicraft-Shelves-Bedroom/dp/B08XP36FMM/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Homeify-Convertible-Sectional-Fabric-Seater/dp/B0BC6NBQM8/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SpyderCraft-EnshumanEnterprises26-Furniture-Cushions-Balcony/dp/B0C3715CZ5/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SpyderCraft-Furniture-Cushions-Balcony-Outdoor/dp/B0C1T35748/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Decoration-Oversized-Furniture-Conversation-Sectional/dp/B0BW12DRSB/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/BLACK-OAK-Classic-Chesterfield-Sectional/dp/B09X8RBZP3/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/CRAFTCITY-Wing-Ottoman-Wingback-livingroom/dp/B0BFJ1P218/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nestroots-Sitting-upholstered-Cushioned-Furniture/dp/B084H9KDJX/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/RESERVE-Glynda-Upholstered-Storage-Ottoman/dp/B08WL538L3/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Torque-Jamestown-Seater-Corner-Living/dp/B097K2J3Q7/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ES-Natasha-Leatherette-Sectional-Orientation/dp/B094ZK1YPP/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/WOODISH-Decorative-Accent-Furniture-Bedroom/dp/B0BG58MPN7/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ELITISM-Handmade-Seater-Wooden-Velvet/dp/B0BJBZFSDK/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/GT-ARTS-Seater-Sheesham-Natural/dp/B08DLS3R57/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sheesham-Couple-Coffee-Finish-Mahogany/dp/B08XZWC3NV/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Elitism-Wooden-Designer-2-Seater-Settee/dp/B0BRJKHLHH/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Shadowkart-Ottoman-Pouffes-Sitting-Dressing/dp/B0B4DY8H75/?_encoding=UTF8&amp;pd_rd_w=kTF8G&amp;content-id=amzn1.sym.2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_p=2bfa8aee-0749-4cc6-9d3a-d6dae7472277&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-furnitureshov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0C7LLGKBK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=app_gw_feb20/?_encoding=UTF8&amp;ie=UTF8&amp;node=14907969031&amp;pd_rd_w=Vw1jb&amp;content-id=amzn1.sym.cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_p=cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=luggage_gw_feb20/?_encoding=UTF8&amp;node=20472969031&amp;pd_rd_w=Vw1jb&amp;content-id=amzn1.sym.cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_p=cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=ssh_gw_feb20/?_encoding=UTF8&amp;ie=UTF8&amp;node=14311960031&amp;pd_rd_w=Vw1jb&amp;content-id=amzn1.sym.cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_p=cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=15124949031&amp;pd_rd_w=Vw1jb&amp;content-id=amzn1.sym.cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_p=cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=6648217031&amp;pd_rd_w=Vw1jb&amp;content-id=amzn1.sym.cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_p=cd9ffda0-4bfa-4192-99ec-0df46e015179&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/events/?_encoding=UTF8&amp;categoryId=gifts-for-men-in&amp;pd_rd_w=0tSCs&amp;content-id=amzn1.sym.a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_p=a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/events/?_encoding=UTF8&amp;categoryId=gifts-for-women-in&amp;pd_rd_w=0tSCs&amp;content-id=amzn1.sym.a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_p=a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/events/?_encoding=UTF8&amp;categoryId=gifts-for-boys-in&amp;pd_rd_w=0tSCs&amp;content-id=amzn1.sym.a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_p=a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/events/?_encoding=UTF8&amp;categoryId=gifts-for-girls-in&amp;pd_rd_w=0tSCs&amp;content-id=amzn1.sym.a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_p=a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/Birthday-store/gfhz/events/?_encoding=UTF8&amp;canBeGiftWrapped=false&amp;categoryId=birthday-store-in&amp;isLimitedTimeOffer=false&amp;isPrime=false&amp;pd_rd_w=0tSCs&amp;content-id=amzn1.sym.a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_p=a6b0571b-ab17-468a-bbab-7344e2761136&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=22645815031&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Latest-Fashionable-Height-Increasing/dp/B0BYJ28SY1/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Latest-Height-Increasing-Hidden/dp/B0BYDWJLGM/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Increasing-Elevators-Sneakers-Fashionable/dp/B0BZ45TVMD/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Black-Womens-Ankle-Boots/dp/B09PQSQQ81/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/fasczo-Increasing-Elevators-Insoles-Leather/dp/B0BZ4JP4LL/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/pelle-albero-Leather-Chelsea-PA-SS-5501_TAN/dp/B0BZLBSG2B/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Saint-Womens-Buckle-Decorative-Leather/dp/B09M73FD37/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Women-Olive-Suede-Leather/dp/B09DL6W8XT/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/AXIUM-FTW165-Women-Block-Boots/dp/B0BRSQJTYS/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Womens-Black-Boots-62172/dp/B09JK2TNQR/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Womens-Velvet-Floral-Leather/dp/B09JCCQ6Z7/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SaintG-Womens-Leather-Handcrafted-Zippers/dp/B0BH511QG8/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Delize-Womens-CHerry-Chelsea-60986-37/dp/B0BLL6GW3B/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Saint-Womens-Black-Stitched-Leather/dp/B087DZMLML/?_encoding=UTF8&amp;pd_rd_w=PmI8Q&amp;content-id=amzn1.sym.e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_p=e5457346-93cc-4c42-b12c-ed0245f78b7e&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-shoes-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html/?ie=UTF8&amp;_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Ffcx%2Fshop-by-age%2F22426616031%3Fage%3Dprenatal%26ref_%3Dfly_sa_pdt_rwt_stet_r_prenatalprenatal_nvc_22426616031%26sa%3D%26sc%3D%26st%3D1372805031&amp;source=standards&amp;token=92E2066044E901E39BA4B55F98E091C9E01827E4&amp;pd_rd_w=v3fmV&amp;content-id=amzn1.sym.c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_p=c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html/?ie=UTF8&amp;_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Ffcx%2Fshop-by-age%2Fstore%3Fage%3Dprenatal%26ref_%3Dfly_sa_pdt_rwt_stet_r_prenatalprenatal_nvs_1571271031%26st%3D1571271031&amp;source=standards&amp;token=469FE99C40360A7AD88A14BFBEE63C66F38DCE60%22%2C%20%22mediaCentralPath%22%3A%22%2Fimg20%2FEvents%2FTinyTots%2FGW%2FMaternity_Sleep__Loungewear.jpg&amp;pd_rd_w=v3fmV&amp;content-id=amzn1.sym.c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_p=c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html/?ie=UTF8&amp;_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Ffcx%2Fshop-by-age%2F22426509031%3Fage%3Dprenatal%26ref_%3Dfly_sa_pdt_rwt_stet_r_prenatalprenatal_nvc_22426509031%26sa%3D%26sc%3D%26st%3D1372805031&amp;source=standards&amp;token=396962536440393EAC337CF4686B9C64EB195518&amp;pd_rd_w=v3fmV&amp;content-id=amzn1.sym.c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_p=c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html/?ie=UTF8&amp;_encoding=UTF8&amp;location=https%3A%2F%2Fwww.amazon.in%2Ffcx%2Fshop-by-age%2F22426115031%3Fage%3Dprenatal%26ref_%3Dfly_sa_hom_rwt_stet_r_prenatalprenatal_nvc_22426115031%26sa%3D%26sc%3D%26st%3D1372805031&amp;source=standards&amp;token=6C4D529D8DC4F0C4B4229EB45FE25AEE2EF9CB45&amp;pd_rd_w=v3fmV&amp;content-id=amzn1.sym.c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_p=c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/25981077031/?_encoding=UTF8&amp;pd_rd_w=v3fmV&amp;content-id=amzn1.sym.c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_p=c4e6abc4-6a33-472a-ba5a-c679167cd85f&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/27014680031/?_encoding=UTF8&amp;pd_rd_w=Wt8gT&amp;content-id=amzn1.sym.211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_p=211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/27016227031/?_encoding=UTF8&amp;pd_rd_w=Wt8gT&amp;content-id=amzn1.sym.211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_p=211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/22962405031/?_encoding=UTF8&amp;pd_rd_w=Wt8gT&amp;content-id=amzn1.sym.211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_p=211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/22422351031/?_encoding=UTF8&amp;pd_rd_w=Wt8gT&amp;content-id=amzn1.sym.211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_p=211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=22422351031&amp;pd_rd_w=Wt8gT&amp;content-id=amzn1.sym.211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_p=211d3c08-ef8f-4431-bf63-ee4eb0728d76&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=14805548031&amp;pd_rd_w=Nt0N9&amp;content-id=amzn1.sym.532edd3d-b0a4-4ab2-8be5-5429cfadf9cd&amp;pf_rd_p=532edd3d-b0a4-4ab2-8be5-5429cfadf9cd&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=21032399031&amp;pd_rd_w=Nt0N9&amp;content-id=amzn1.sym.532edd3d-b0a4-4ab2-8be5-5429cfadf9cd&amp;pf_rd_p=532edd3d-b0a4-4ab2-8be5-5429cfadf9cd&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=27366150031&amp;pd_rd_w=Nt0N9&amp;content-id=amzn1.sym.532edd3d-b0a4-4ab2-8be5-5429cfadf9cd&amp;pf_rd_p=532edd3d-b0a4-4ab2-8be5-5429cfadf9cd&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=1571274031&amp;pd_rd_w=Nt0N9&amp;content-id=amzn1.sym.532edd3d-b0a4-4ab2-8be5-5429cfadf9cd&amp;pf_rd_p=532edd3d-b0a4-4ab2-8be5-5429cfadf9cd&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=68698547031&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kapasi-Handicrafts-Brass-Elephant-Trunk/dp/B084ZQ5B7J/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kaka-jiji-Handicraft-Marble-Krishna/dp/B0995HQQMM/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Candle-Floating-Festival-Flowers-Silver/dp/B0BW8SD3MB/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/DECORE-BASKET-Decor-Metal-Bullet/dp/B08HK3PMQT/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Water-Tale-Dragonflies-Clock-Kolorobia/dp/B09MHKGQ92/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Artisan-Emporium-Holder-Set-Decoration-Hand-Painted/dp/B09J91C1PT/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Artzilla-Artworks-Black-Premium-50x50cm/dp/B0C2K511N6/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kaka-jiji-Handicraft-Venkateswara-Multicolour/dp/B093XWFSNJ/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Decor-Production-Lamination-sparkle_poster_pt2-Multicolor/dp/B08TH6YL1W/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Craftam-Meditating-Backflow-Decorative-Showpiece/dp/B07DMRMVXD/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Paper-Plane-Design-Rectangular-Multicolour/dp/B075R4CGMQ/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Zuper-Handmade-Beautiful-Wooden-Office/dp/B09Z2YWS59/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Shri-Kanth-Customized-Perfect-Decorations/dp/B07YFR7311/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Alnico-Decor-Silver-Finish-Metallic/dp/B08L3CVWR7/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Living-Ticking-Decorative-Bedroom-Kitchen/dp/B0BL34DF85/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Chitra-Artworks_Handmade-Mirror-Painting-12/dp/B0BWXSG74D/?_encoding=UTF8&amp;pd_rd_w=3UPUz&amp;content-id=amzn1.sym.7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_p=7cf973a7-21fb-444f-b0f4-e4299175c709&amp;pf_rd_r=AVY9HDJ1W3CPX0VRMT6Y&amp;pd_rd_wg=OLMda&amp;pd_rd_r=ead6c65a-0a19-457d-a5d0-6edcd0e7762c&amp;ref_=pd_gw_lsgw-home-mo-shov</t>
   </si>
 </sst>
 </file>
@@ -477,4 +2204,3758 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0828D0A1-F868-4009-B9F2-EA74EF7BF57D}">
+  <dimension ref="A3:A373"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF7F8ED-654B-4C7F-AD00-7210F7FD4493}">
+  <dimension ref="A3:A392"/>
+  <sheetViews>
+    <sheetView topLeftCell="A236" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>